--- a/세특문장수_수시정시_구분.xlsx
+++ b/세특문장수_수시정시_구분.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Na\202410821\StatisticalAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B9F695-E8FE-4E20-B0B3-3CC02FCBBD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591243E-19F2-4CB9-9661-C1560B46D5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{E03D1DDC-E57E-4BA6-AE16-271AEBB1C2B0}"/>
+    <workbookView xWindow="11950" yWindow="870" windowWidth="12620" windowHeight="14330" xr2:uid="{E03D1DDC-E57E-4BA6-AE16-271AEBB1C2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="세특문장수_수시정시_구분" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>학생이름</t>
   </si>
@@ -91,157 +91,168 @@
     <t>202211552_3학년_컴퓨터과학전공_임진욱_정시_censored</t>
   </si>
   <si>
+    <t>202215075_4학년_컴퓨터과학과_윤용선_편입_censored</t>
+  </si>
+  <si>
+    <t>202310098_3학년_생명공학과_김소연_정시_censored</t>
+  </si>
+  <si>
+    <t>202310102_3학년_컴퓨터과학과_김유빈_수시_censored</t>
+  </si>
+  <si>
+    <t>202310767_3학년_컴퓨터과학전공_강한별_수시_censored</t>
+  </si>
+  <si>
+    <t>202310941_1학년_컴퓨터과학과_신성빈_정시_censored</t>
+  </si>
+  <si>
+    <t>202311093_1학년_컴퓨터과학과_유선웅_정시_censored</t>
+  </si>
+  <si>
+    <t>202315049_3학년_글로벌경영학과_정유빈_수시_censored</t>
+  </si>
+  <si>
+    <t>202315060_3학년_휴먼AI공학전공_서현승_정시_censored</t>
+  </si>
+  <si>
+    <t>202315168_3학년_컴퓨터과학과_최은서_정시_censored</t>
+  </si>
+  <si>
+    <t>202410215_2학년_컴퓨터과학과_이윤지_정시_censored</t>
+  </si>
+  <si>
+    <t>202410346_2학년_교육학과_성홍경_정시_censored</t>
+  </si>
+  <si>
+    <t>202410723_2학년_컴퓨터과학과_이정원_수시_censored</t>
+  </si>
+  <si>
+    <t>202410821_2학년_컴퓨터과학전공_권서윤_정시_censored</t>
+  </si>
+  <si>
+    <t>202410822_2학년_컴퓨터과학과_김건규_정시_censored</t>
+  </si>
+  <si>
+    <t>202410843_2학년_컴퓨터과학전공_남예린_정시_censored</t>
+  </si>
+  <si>
+    <t>202410891_2학년_컴퓨터과학과_장윤하_수시_censored</t>
+  </si>
+  <si>
+    <t>202411431_2학년_지적재산권전공_강수민_수시_censored</t>
+  </si>
+  <si>
+    <t>202510782_1학년_컴퓨터과학과_김동하_수시_censored</t>
+  </si>
+  <si>
+    <t>202510790_1학년_컴퓨터과학과_김이준_수시_censored</t>
+  </si>
+  <si>
+    <t>202510801_1학년_컴퓨터과학과_문서진_수시_censored</t>
+  </si>
+  <si>
+    <t>202510806_1학년_컴퓨터과학과_박시연_정시_censored</t>
+  </si>
+  <si>
+    <t>202510808_1학년_컴퓨터과학과_박유우_수시_censored</t>
+  </si>
+  <si>
+    <t>202510817_1학년_컴퓨터과학과_성민규_수시_censored</t>
+  </si>
+  <si>
+    <t>202510818_1학년_컴퓨터과학과_성현재_수시_censored</t>
+  </si>
+  <si>
+    <t>202510823_1학년_컴퓨터과학과_위아준_수시_censored</t>
+  </si>
+  <si>
+    <t>202510824_1학년_컴퓨터과학과_유다연_정시_censored</t>
+  </si>
+  <si>
+    <t>202510827_1학년_컴퓨터과학과_윤다인_수시_censored</t>
+  </si>
+  <si>
+    <t>202510837_1학년_컴퓨터과학과_이정민_정시_censored</t>
+  </si>
+  <si>
+    <t>202510839_1학년_컴퓨터과학과_이준성_수시_censored</t>
+  </si>
+  <si>
+    <t>202510843_1학년_컴퓨터과학전공_임희철_수시_censored</t>
+  </si>
+  <si>
+    <t>202510845_1학년_컴퓨터과학과_장효석_수시_censored</t>
+  </si>
+  <si>
+    <t>202510847_1학년_컴퓨터과학과_정윤성_수시_censored</t>
+  </si>
+  <si>
+    <t>202510854_1학년_컴퓨터과학전공_최민규_수시_censored</t>
+  </si>
+  <si>
+    <t>202510855_1학년_컴퓨터과학과_최현준_수시_censored</t>
+  </si>
+  <si>
+    <t>202511291_1학년_자유전공학부(인문사회계열)_조은진_정시_censored</t>
+  </si>
+  <si>
+    <t>202511293_1학년_컴퓨터과학과_주서연_정시_censored</t>
+  </si>
+  <si>
+    <t>202511355_1학년_컴퓨터과학과_정지승_정시_censored</t>
+  </si>
+  <si>
+    <t>202511383_1학년_컴퓨터과학과_백민건_수시_censored</t>
+  </si>
+  <si>
+    <t>202511389_1학년_컴퓨터과학과_양석현_수시_censored</t>
+  </si>
+  <si>
+    <t>202511391_1학년_자유전공(it계열)_윤성재_수시_censored</t>
+  </si>
+  <si>
+    <t>202511407_1학년_컴퓨터과학과_주남영_수시_censored</t>
+  </si>
+  <si>
+    <t>202511468_1학년_컴퓨터과학과_이은서_정시_censored</t>
+  </si>
+  <si>
+    <t>202511550_1학년_컴퓨터과학과_박지수_정시</t>
+  </si>
+  <si>
+    <t>202511554_1학년_컴퓨터과학과_유재욱_정시_censored</t>
+  </si>
+  <si>
+    <t>202511585_1학년_자율전공_김태훈_수시_censored</t>
+  </si>
+  <si>
+    <t>202511596_1학년_ 컴퓨터과학과_송동준_정시_censored</t>
+  </si>
+  <si>
+    <t>202511602_1학년_컴퓨터과학과_최준영_정시_censored</t>
+  </si>
+  <si>
+    <t>202511654_1학년_컴퓨터과학과_이주환_정시_censored</t>
+  </si>
+  <si>
+    <t>수시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>202215073_4학년_컴퓨터과학과_박채빈_편입_censored</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>202215036_4학년_경영학부_김재형_편입_censored</t>
-  </si>
-  <si>
-    <t>미분류</t>
-  </si>
-  <si>
-    <t>202215073_4학년_컴퓨터과학과_박채빈_편입_censored</t>
-  </si>
-  <si>
-    <t>202215075_4학년_컴퓨터과학과_윤용선_편입_censored</t>
-  </si>
-  <si>
-    <t>202310098_3학년_생명공학과_김소연_정시_censored</t>
-  </si>
-  <si>
-    <t>202310102_3학년_컴퓨터과학과_김유빈_수시_censored</t>
-  </si>
-  <si>
-    <t>202310767_3학년_컴퓨터과학전공_강한별_수시_censored</t>
-  </si>
-  <si>
-    <t>202310941_1학년_컴퓨터과학과_신성빈_정시_censored</t>
-  </si>
-  <si>
-    <t>202311093_1학년_컴퓨터과학과_유선웅_정시_censored</t>
-  </si>
-  <si>
-    <t>202315049_3학년_글로벌경영학과_정유빈_수시_censored</t>
-  </si>
-  <si>
-    <t>202315060_3학년_휴먼AI공학전공_서현승_정시_censored</t>
-  </si>
-  <si>
-    <t>202315168_3학년_컴퓨터과학과_최은서_정시_censored</t>
-  </si>
-  <si>
-    <t>202410215_2학년_컴퓨터과학과_이윤지_정시_censored</t>
-  </si>
-  <si>
-    <t>202410346_2학년_교육학과_성홍경_정시_censored</t>
-  </si>
-  <si>
-    <t>202410723_2학년_컴퓨터과학과_이정원_수시_censored</t>
-  </si>
-  <si>
-    <t>202410821_2학년_컴퓨터과학전공_권서윤_정시_censored</t>
-  </si>
-  <si>
-    <t>202410822_2학년_컴퓨터과학과_김건규_정시_censored</t>
-  </si>
-  <si>
-    <t>202410843_2학년_컴퓨터과학전공_남예린_정시_censored</t>
-  </si>
-  <si>
-    <t>202410891_2학년_컴퓨터과학과_장윤하_수시_censored</t>
-  </si>
-  <si>
-    <t>202411431_2학년_지적재산권전공_강수민_수시_censored</t>
-  </si>
-  <si>
-    <t>202510782_1학년_컴퓨터과학과_김동하_수시_censored</t>
-  </si>
-  <si>
-    <t>202510790_1학년_컴퓨터과학과_김이준_수시_censored</t>
-  </si>
-  <si>
-    <t>202510801_1학년_컴퓨터과학과_문서진_수시_censored</t>
-  </si>
-  <si>
-    <t>202510806_1학년_컴퓨터과학과_박시연_정시_censored</t>
-  </si>
-  <si>
-    <t>202510808_1학년_컴퓨터과학과_박유우_수시_censored</t>
-  </si>
-  <si>
-    <t>202510817_1학년_컴퓨터과학과_성민규_수시_censored</t>
-  </si>
-  <si>
-    <t>202510818_1학년_컴퓨터과학과_성현재_수시_censored</t>
-  </si>
-  <si>
-    <t>202510823_1학년_컴퓨터과학과_위아준_수시_censored</t>
-  </si>
-  <si>
-    <t>202510824_1학년_컴퓨터과학과_유다연_정시_censored</t>
-  </si>
-  <si>
-    <t>202510827_1학년_컴퓨터과학과_윤다인_수시_censored</t>
-  </si>
-  <si>
-    <t>202510837_1학년_컴퓨터과학과_이정민_정시_censored</t>
-  </si>
-  <si>
-    <t>202510839_1학년_컴퓨터과학과_이준성_수시_censored</t>
-  </si>
-  <si>
-    <t>202510843_1학년_컴퓨터과학전공_임희철_수시_censored</t>
-  </si>
-  <si>
-    <t>202510845_1학년_컴퓨터과학과_장효석_수시_censored</t>
-  </si>
-  <si>
-    <t>202510847_1학년_컴퓨터과학과_정윤성_수시_censored</t>
-  </si>
-  <si>
-    <t>202510854_1학년_컴퓨터과학전공_최민규_수시_censored</t>
-  </si>
-  <si>
-    <t>202510855_1학년_컴퓨터과학과_최현준_수시_censored</t>
-  </si>
-  <si>
-    <t>202511291_1학년_자유전공학부(인문사회계열)_조은진_정시_censored</t>
-  </si>
-  <si>
-    <t>202511293_1학년_컴퓨터과학과_주서연_정시_censored</t>
-  </si>
-  <si>
-    <t>202511355_1학년_컴퓨터과학과_정지승_정시_censored</t>
-  </si>
-  <si>
-    <t>202511383_1학년_컴퓨터과학과_백민건_수시_censored</t>
-  </si>
-  <si>
-    <t>202511389_1학년_컴퓨터과학과_양석현_수시_censored</t>
-  </si>
-  <si>
-    <t>202511391_1학년_자유전공(it계열)_윤성재_수시_censored</t>
-  </si>
-  <si>
-    <t>202511407_1학년_컴퓨터과학과_주남영_수시_censored</t>
-  </si>
-  <si>
-    <t>202511468_1학년_컴퓨터과학과_이은서_정시_censored</t>
-  </si>
-  <si>
-    <t>202511550_1학년_컴퓨터과학과_박지수_정시</t>
-  </si>
-  <si>
-    <t>202511554_1학년_컴퓨터과학과_유재욱_정시_censored</t>
-  </si>
-  <si>
-    <t>202511585_1학년_자율전공_김태훈_수시_censored</t>
-  </si>
-  <si>
-    <t>202511596_1학년_ 컴퓨터과학과_송동준_정시_censored</t>
-  </si>
-  <si>
-    <t>202511602_1학년_컴퓨터과학과_최준영_정시_censored</t>
-  </si>
-  <si>
-    <t>202511654_1학년_컴퓨터과학과_이주환_정시_censored</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>논술</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>편입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1215,11 +1226,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F577DB3-0D75-4902-B5A5-8439FA8D15CD}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="50.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1241,18 +1257,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1274,18 +1290,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1312,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1334,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1329,7 +1345,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1356,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1362,7 +1378,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1389,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1384,7 +1400,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1395,7 +1411,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +1422,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1417,7 +1433,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1428,42 +1444,42 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C22">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -1472,9 +1488,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1483,9 +1499,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1494,9 +1510,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1505,9 +1521,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -1516,31 +1532,31 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C29">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -1549,9 +1565,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
@@ -1560,9 +1576,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -1571,9 +1587,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1582,9 +1598,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -1593,9 +1609,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -1604,9 +1620,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
@@ -1615,9 +1631,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1626,9 +1642,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1637,9 +1653,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1648,9 +1664,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1659,9 +1675,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1670,9 +1686,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -1681,20 +1697,20 @@
         <v>309</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1703,9 +1719,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1714,9 +1730,9 @@
         <v>381</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1725,9 +1741,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
@@ -1736,9 +1752,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1747,9 +1763,9 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -1758,9 +1774,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1769,9 +1785,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1780,9 +1796,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1791,9 +1807,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1802,9 +1818,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1813,9 +1829,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1824,9 +1840,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -1835,9 +1851,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
@@ -1846,9 +1862,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -1857,9 +1873,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1868,20 +1884,20 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C60">
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1890,9 +1906,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1901,9 +1917,9 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
@@ -1912,9 +1928,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -1923,9 +1939,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
@@ -1934,9 +1950,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1945,9 +1961,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -1956,9 +1972,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1967,9 +1983,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -1981,5 +1997,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>